--- a/results/sorted/accuracy_summary.xlsx
+++ b/results/sorted/accuracy_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>distribution</t>
   </si>
@@ -34,13 +34,22 @@
     <t>method</t>
   </si>
   <si>
+    <t>EKNN</t>
+  </si>
+  <si>
     <t>GBRT</t>
   </si>
   <si>
     <t>RFR</t>
   </si>
   <si>
-    <t>RTER_cv</t>
+    <t>RTER</t>
+  </si>
+  <si>
+    <t>boosting</t>
+  </si>
+  <si>
+    <t>ensemble</t>
   </si>
 </sst>
 </file>
@@ -398,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -412,20 +421,32 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -433,9 +454,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -445,8 +464,22 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,16 +496,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1">
         <v>1</v>
@@ -486,125 +519,518 @@
       <c r="M3" s="1">
         <v>4</v>
       </c>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>3</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>6</v>
+      </c>
+      <c r="X3" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.044849148802462</v>
+        <v>1.257490857066638</v>
       </c>
       <c r="C5">
-        <v>1.136674197065978</v>
+        <v>2.845804492545445</v>
       </c>
       <c r="D5">
-        <v>2879.612949836645</v>
+        <v>2606.18291765965</v>
       </c>
       <c r="E5">
-        <v>0.4933175083787545</v>
+        <v>1.004476106332884</v>
       </c>
       <c r="F5">
-        <v>0.1541020142967758</v>
+        <v>1.015991312809583</v>
       </c>
       <c r="G5">
-        <v>0.4249669121081145</v>
+        <v>1.003423425476864</v>
       </c>
       <c r="H5">
-        <v>483.4204841544653</v>
+        <v>0.1188928126359489</v>
       </c>
       <c r="I5">
-        <v>0.03226236104979822</v>
+        <v>0.1490228643150471</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>0.01823043989967659</v>
       </c>
       <c r="K5">
-        <v>8</v>
+        <v>0.1442349537478571</v>
       </c>
       <c r="L5">
-        <v>6</v>
+        <v>308.9023728135941</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>0.02154785271258383</v>
+      </c>
+      <c r="N5">
+        <v>0.02391143437673567</v>
+      </c>
+      <c r="O5">
+        <v>0.02527272633438213</v>
+      </c>
+      <c r="P5">
+        <v>0.002104038730594687</v>
+      </c>
+      <c r="Q5">
+        <v>0.004111738650072404</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.4942401227988277</v>
+        <v>1.018036464002866</v>
       </c>
       <c r="C6">
-        <v>1.973120514913894</v>
+        <v>1.125185016483693</v>
       </c>
       <c r="D6">
-        <v>3994.387036033409</v>
+        <v>100.1268761073523</v>
       </c>
       <c r="E6">
-        <v>0.1937491949547903</v>
+        <v>1.008526304720068</v>
       </c>
       <c r="F6">
-        <v>0.06218209299395568</v>
+        <v>1.021176653669718</v>
       </c>
       <c r="G6">
-        <v>0.8635279851663303</v>
+        <v>1.013534367278989</v>
       </c>
       <c r="H6">
-        <v>977.11487729726</v>
+        <v>0.1115136573645352</v>
       </c>
       <c r="I6">
-        <v>0.0241504789069822</v>
+        <v>0.1110997793904922</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>0.0162032206129706</v>
       </c>
       <c r="K6">
-        <v>8</v>
+        <v>0.03895418419500197</v>
       </c>
       <c r="L6">
-        <v>6</v>
+        <v>8.436700945542507</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>0.02320186640817689</v>
+      </c>
+      <c r="N6">
+        <v>0.02174049293571163</v>
+      </c>
+      <c r="O6">
+        <v>0.02739218037264376</v>
+      </c>
+      <c r="P6">
+        <v>0.002842431502878605</v>
+      </c>
+      <c r="Q6">
+        <v>0.002286149292630066</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>5</v>
+      </c>
+      <c r="Y6">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0420858509978199</v>
+        <v>1.455147294777162</v>
       </c>
       <c r="C7">
-        <v>7.653027457916115</v>
+        <v>1.310570104504573</v>
+      </c>
+      <c r="D7">
+        <v>94.34329084982431</v>
+      </c>
+      <c r="E7">
+        <v>1.064013876131769</v>
       </c>
       <c r="F7">
-        <v>0.0005452860726687614</v>
+        <v>1.093980092080142</v>
       </c>
       <c r="G7">
-        <v>1.258390705429404</v>
+        <v>1.188604968829139</v>
+      </c>
+      <c r="H7">
+        <v>0.1103916355886963</v>
+      </c>
+      <c r="I7">
+        <v>0.1209276472441015</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>0.03661060799577516</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0.03395234596916784</v>
+      </c>
+      <c r="L7">
+        <v>12.69760936120558</v>
+      </c>
+      <c r="M7">
+        <v>0.02055132960286781</v>
+      </c>
+      <c r="N7">
+        <v>0.02709182300943599</v>
+      </c>
+      <c r="O7">
+        <v>0.01881582502631891</v>
+      </c>
+      <c r="P7">
+        <v>0.003121228366446821</v>
+      </c>
+      <c r="Q7">
+        <v>0.001396281553571978</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1.013255187087409</v>
+      </c>
+      <c r="C8">
+        <v>6.610626526664705</v>
+      </c>
+      <c r="D8">
+        <v>2169.588591196504</v>
+      </c>
+      <c r="E8">
+        <v>1.006682821552265</v>
+      </c>
+      <c r="F8">
+        <v>1.099652695756684</v>
+      </c>
+      <c r="G8">
+        <v>1.017215914216588</v>
+      </c>
+      <c r="H8">
+        <v>0.11855448701582</v>
+      </c>
+      <c r="I8">
+        <v>0.1115006638883608</v>
+      </c>
+      <c r="J8">
+        <v>0.02017581331525807</v>
+      </c>
+      <c r="K8">
+        <v>3.169195483072161</v>
+      </c>
+      <c r="L8">
+        <v>1188.134794555398</v>
+      </c>
+      <c r="M8">
+        <v>0.0196863100744308</v>
+      </c>
+      <c r="N8">
+        <v>0.01796571400705718</v>
+      </c>
+      <c r="O8">
+        <v>0.02848865153286255</v>
+      </c>
+      <c r="P8">
+        <v>0.001842570299509484</v>
+      </c>
+      <c r="Q8">
+        <v>0.001741803848175102</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.383274369008481</v>
+      </c>
+      <c r="C9">
+        <v>6.100812592781562</v>
+      </c>
+      <c r="D9">
+        <v>40254.82168605347</v>
+      </c>
+      <c r="E9">
+        <v>0.9995768447337818</v>
+      </c>
+      <c r="F9">
+        <v>1.095888467163443</v>
+      </c>
+      <c r="G9">
+        <v>1.026159607725423</v>
+      </c>
+      <c r="H9">
+        <v>0.1194896030207907</v>
+      </c>
+      <c r="I9">
+        <v>0.1877355548292222</v>
+      </c>
+      <c r="J9">
+        <v>0.01751136154267384</v>
+      </c>
+      <c r="K9">
+        <v>0.1152009629116622</v>
+      </c>
+      <c r="L9">
+        <v>1152.533187038929</v>
+      </c>
+      <c r="M9">
+        <v>0.02106291612765937</v>
+      </c>
+      <c r="N9">
+        <v>0.02974479245138514</v>
+      </c>
+      <c r="O9">
+        <v>0.02452600928455734</v>
+      </c>
+      <c r="P9">
+        <v>0.002084313363025116</v>
+      </c>
+      <c r="Q9">
+        <v>0.005740431296464766</v>
+      </c>
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1.382857905042914</v>
+      </c>
+      <c r="C10">
+        <v>10.61271089196791</v>
+      </c>
+      <c r="D10">
+        <v>66576.26858159907</v>
+      </c>
+      <c r="E10">
+        <v>0.9995059791393377</v>
+      </c>
+      <c r="F10">
+        <v>1.157831742573613</v>
+      </c>
+      <c r="G10">
+        <v>1.026159039296157</v>
+      </c>
+      <c r="H10">
+        <v>0.1194485700531693</v>
+      </c>
+      <c r="I10">
+        <v>0.1876993557327678</v>
+      </c>
+      <c r="J10">
+        <v>0.01807691802761511</v>
+      </c>
+      <c r="K10">
+        <v>0.3711410206593383</v>
+      </c>
+      <c r="L10">
+        <v>3338.519078360688</v>
+      </c>
+      <c r="M10">
+        <v>0.02096023008490196</v>
+      </c>
+      <c r="N10">
+        <v>0.03288535527876583</v>
+      </c>
+      <c r="O10">
+        <v>0.0245258212669632</v>
+      </c>
+      <c r="P10">
+        <v>0.002161917028066279</v>
+      </c>
+      <c r="Q10">
+        <v>0.005745340623041289</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:Q2"/>
+    <mergeCell ref="R2:Y2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/sorted/accuracy_summary.xlsx
+++ b/results/sorted/accuracy_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>distribution</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>method</t>
-  </si>
-  <si>
-    <t>EKNN</t>
   </si>
   <si>
     <t>GBRT</t>
@@ -407,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,52 +563,52 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.257490857066638</v>
+        <v>1.018036464002866</v>
       </c>
       <c r="C5">
-        <v>2.845804492545445</v>
+        <v>1.125185016483693</v>
       </c>
       <c r="D5">
-        <v>2606.18291765965</v>
+        <v>100.1268761073523</v>
       </c>
       <c r="E5">
-        <v>1.004476106332884</v>
+        <v>1.008526304720068</v>
       </c>
       <c r="F5">
-        <v>1.015991312809583</v>
+        <v>1.021176653669718</v>
       </c>
       <c r="G5">
-        <v>1.003423425476864</v>
+        <v>1.013534367278989</v>
       </c>
       <c r="H5">
-        <v>0.1188928126359489</v>
+        <v>0.1115136573645352</v>
       </c>
       <c r="I5">
-        <v>0.1490228643150471</v>
+        <v>0.1110997793904922</v>
       </c>
       <c r="J5">
-        <v>0.01823043989967659</v>
+        <v>0.0162032206129706</v>
       </c>
       <c r="K5">
-        <v>0.1442349537478571</v>
+        <v>0.03895418419500197</v>
       </c>
       <c r="L5">
-        <v>308.9023728135941</v>
+        <v>8.436700945542507</v>
       </c>
       <c r="M5">
-        <v>0.02154785271258383</v>
+        <v>0.02320186640817689</v>
       </c>
       <c r="N5">
-        <v>0.02391143437673567</v>
+        <v>0.02174049293571163</v>
       </c>
       <c r="O5">
-        <v>0.02527272633438213</v>
+        <v>0.02739218037264376</v>
       </c>
       <c r="P5">
-        <v>0.002104038730594687</v>
+        <v>0.002842431502878605</v>
       </c>
       <c r="Q5">
-        <v>0.004111738650072404</v>
+        <v>0.002286149292630066</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -643,52 +640,52 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.018036464002866</v>
+        <v>1.455206115151543</v>
       </c>
       <c r="C6">
-        <v>1.125185016483693</v>
+        <v>1.310570104504573</v>
       </c>
       <c r="D6">
-        <v>100.1268761073523</v>
+        <v>94.34329084982431</v>
       </c>
       <c r="E6">
-        <v>1.008526304720068</v>
+        <v>1.06563306653016</v>
       </c>
       <c r="F6">
-        <v>1.021176653669718</v>
+        <v>1.093980092080142</v>
       </c>
       <c r="G6">
-        <v>1.013534367278989</v>
+        <v>1.188604968829139</v>
       </c>
       <c r="H6">
-        <v>0.1115136573645352</v>
+        <v>0.1105104227309535</v>
       </c>
       <c r="I6">
-        <v>0.1110997793904922</v>
+        <v>0.1210137893540024</v>
       </c>
       <c r="J6">
-        <v>0.0162032206129706</v>
+        <v>0.0365473615938669</v>
       </c>
       <c r="K6">
-        <v>0.03895418419500197</v>
+        <v>0.03395234596916784</v>
       </c>
       <c r="L6">
-        <v>8.436700945542507</v>
+        <v>12.69760936120558</v>
       </c>
       <c r="M6">
-        <v>0.02320186640817689</v>
+        <v>0.01887366039718362</v>
       </c>
       <c r="N6">
-        <v>0.02174049293571163</v>
+        <v>0.02709182300943599</v>
       </c>
       <c r="O6">
-        <v>0.02739218037264376</v>
+        <v>0.01881582502631891</v>
       </c>
       <c r="P6">
-        <v>0.002842431502878605</v>
+        <v>0.003386489627939374</v>
       </c>
       <c r="Q6">
-        <v>0.002286149292630066</v>
+        <v>0.001505962810935988</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -720,52 +717,52 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.455147294777162</v>
+        <v>1.019391486273982</v>
       </c>
       <c r="C7">
-        <v>1.310570104504573</v>
+        <v>2.250396963482474</v>
       </c>
       <c r="D7">
-        <v>94.34329084982431</v>
+        <v>523.2287867706126</v>
       </c>
       <c r="E7">
-        <v>1.064013876131769</v>
+        <v>1.000721719390611</v>
       </c>
       <c r="F7">
-        <v>1.093980092080142</v>
+        <v>1.073271771762385</v>
       </c>
       <c r="G7">
-        <v>1.188604968829139</v>
+        <v>1.008889095137781</v>
       </c>
       <c r="H7">
-        <v>0.1103916355886963</v>
+        <v>0.1186518760846478</v>
       </c>
       <c r="I7">
-        <v>0.1209276472441015</v>
+        <v>0.1229493057330703</v>
       </c>
       <c r="J7">
-        <v>0.03661060799577516</v>
+        <v>0.02259099948195098</v>
       </c>
       <c r="K7">
-        <v>0.03395234596916784</v>
+        <v>0.155195804440869</v>
       </c>
       <c r="L7">
-        <v>12.69760936120558</v>
+        <v>25.7959313553752</v>
       </c>
       <c r="M7">
-        <v>0.02055132960286781</v>
+        <v>0.02094161121906601</v>
       </c>
       <c r="N7">
-        <v>0.02709182300943599</v>
+        <v>0.02566617774174045</v>
       </c>
       <c r="O7">
-        <v>0.01881582502631891</v>
+        <v>0.02509000689685814</v>
       </c>
       <c r="P7">
-        <v>0.003121228366446821</v>
+        <v>0.002858657329747658</v>
       </c>
       <c r="Q7">
-        <v>0.001396281553571978</v>
+        <v>0.005273098722336581</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -797,52 +794,52 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.013255187087409</v>
+        <v>1.383337065441606</v>
       </c>
       <c r="C8">
-        <v>6.610626526664705</v>
+        <v>6.042374220827495</v>
       </c>
       <c r="D8">
-        <v>2169.588591196504</v>
+        <v>40103.65105239163</v>
       </c>
       <c r="E8">
-        <v>1.006682821552265</v>
+        <v>0.9995002953896431</v>
       </c>
       <c r="F8">
-        <v>1.099652695756684</v>
+        <v>1.09626762164894</v>
       </c>
       <c r="G8">
-        <v>1.017215914216588</v>
+        <v>1.026159507215772</v>
       </c>
       <c r="H8">
-        <v>0.11855448701582</v>
+        <v>0.1194896030207907</v>
       </c>
       <c r="I8">
-        <v>0.1115006638883608</v>
+        <v>0.1877355548292222</v>
       </c>
       <c r="J8">
-        <v>0.02017581331525807</v>
+        <v>0.01737636210097845</v>
       </c>
       <c r="K8">
-        <v>3.169195483072161</v>
+        <v>0.1200840233355235</v>
       </c>
       <c r="L8">
-        <v>1188.134794555398</v>
+        <v>1099.230600305496</v>
       </c>
       <c r="M8">
-        <v>0.0196863100744308</v>
+        <v>0.02103395394722372</v>
       </c>
       <c r="N8">
-        <v>0.01796571400705718</v>
+        <v>0.02973485439598552</v>
       </c>
       <c r="O8">
-        <v>0.02848865153286255</v>
+        <v>0.02452616354732107</v>
       </c>
       <c r="P8">
-        <v>0.001842570299509484</v>
+        <v>0.002084313363025116</v>
       </c>
       <c r="Q8">
-        <v>0.001741803848175102</v>
+        <v>0.005740431296464766</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -874,52 +871,52 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.383274369008481</v>
+        <v>1.382857905042914</v>
       </c>
       <c r="C9">
-        <v>6.100812592781562</v>
+        <v>10.61271089196791</v>
       </c>
       <c r="D9">
-        <v>40254.82168605347</v>
+        <v>66576.26858159907</v>
       </c>
       <c r="E9">
-        <v>0.9995768447337818</v>
+        <v>0.9995059791393377</v>
       </c>
       <c r="F9">
-        <v>1.095888467163443</v>
+        <v>1.157831742573613</v>
       </c>
       <c r="G9">
-        <v>1.026159607725423</v>
+        <v>1.026159039296157</v>
       </c>
       <c r="H9">
-        <v>0.1194896030207907</v>
+        <v>0.1194485700531693</v>
       </c>
       <c r="I9">
-        <v>0.1877355548292222</v>
+        <v>0.1876993557327678</v>
       </c>
       <c r="J9">
-        <v>0.01751136154267384</v>
+        <v>0.01807691802761511</v>
       </c>
       <c r="K9">
-        <v>0.1152009629116622</v>
+        <v>0.3711410206593383</v>
       </c>
       <c r="L9">
-        <v>1152.533187038929</v>
+        <v>3338.519078360688</v>
       </c>
       <c r="M9">
-        <v>0.02106291612765937</v>
+        <v>0.02096023008490196</v>
       </c>
       <c r="N9">
-        <v>0.02974479245138514</v>
+        <v>0.03288535527876583</v>
       </c>
       <c r="O9">
-        <v>0.02452600928455734</v>
+        <v>0.0245258212669632</v>
       </c>
       <c r="P9">
-        <v>0.002084313363025116</v>
+        <v>0.002161917028066279</v>
       </c>
       <c r="Q9">
-        <v>0.005740431296464766</v>
+        <v>0.005745340623041289</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -943,83 +940,6 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>1.382857905042914</v>
-      </c>
-      <c r="C10">
-        <v>10.61271089196791</v>
-      </c>
-      <c r="D10">
-        <v>66576.26858159907</v>
-      </c>
-      <c r="E10">
-        <v>0.9995059791393377</v>
-      </c>
-      <c r="F10">
-        <v>1.157831742573613</v>
-      </c>
-      <c r="G10">
-        <v>1.026159039296157</v>
-      </c>
-      <c r="H10">
-        <v>0.1194485700531693</v>
-      </c>
-      <c r="I10">
-        <v>0.1876993557327678</v>
-      </c>
-      <c r="J10">
-        <v>0.01807691802761511</v>
-      </c>
-      <c r="K10">
-        <v>0.3711410206593383</v>
-      </c>
-      <c r="L10">
-        <v>3338.519078360688</v>
-      </c>
-      <c r="M10">
-        <v>0.02096023008490196</v>
-      </c>
-      <c r="N10">
-        <v>0.03288535527876583</v>
-      </c>
-      <c r="O10">
-        <v>0.0245258212669632</v>
-      </c>
-      <c r="P10">
-        <v>0.002161917028066279</v>
-      </c>
-      <c r="Q10">
-        <v>0.005745340623041289</v>
-      </c>
-      <c r="R10">
-        <v>5</v>
-      </c>
-      <c r="S10">
-        <v>5</v>
-      </c>
-      <c r="T10">
-        <v>5</v>
-      </c>
-      <c r="U10">
-        <v>5</v>
-      </c>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
-      </c>
-      <c r="X10">
-        <v>5</v>
-      </c>
-      <c r="Y10">
         <v>5</v>
       </c>
     </row>

--- a/results/sorted/accuracy_summary.xlsx
+++ b/results/sorted/accuracy_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>distribution</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>method</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>EKNN</t>
   </si>
   <si>
     <t>GBRT</t>
@@ -404,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -422,28 +428,31 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:28">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -455,28 +464,31 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,116 +517,125 @@
         <v>8</v>
       </c>
       <c r="J3" s="1">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>3</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>4</v>
       </c>
-      <c r="N3" s="1">
-        <v>5</v>
-      </c>
       <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1">
         <v>6</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>7</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>8</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
+        <v>9</v>
+      </c>
+      <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="S3" s="1">
+      <c r="U3" s="1">
         <v>2</v>
       </c>
-      <c r="T3" s="1">
+      <c r="V3" s="1">
         <v>3</v>
       </c>
-      <c r="U3" s="1">
+      <c r="W3" s="1">
         <v>4</v>
       </c>
-      <c r="V3" s="1">
-        <v>5</v>
-      </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="1">
         <v>6</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Z3" s="1">
         <v>7</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AA3" s="1">
         <v>8</v>
       </c>
+      <c r="AB3" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1.018036464002866</v>
+        <v>1.114440508584456</v>
       </c>
       <c r="C5">
-        <v>1.125185016483693</v>
+        <v>2.996862891848093</v>
       </c>
       <c r="D5">
-        <v>100.1268761073523</v>
+        <v>1382.887862159095</v>
       </c>
       <c r="E5">
-        <v>1.008526304720068</v>
+        <v>1.040813627707471</v>
       </c>
       <c r="F5">
-        <v>1.021176653669718</v>
+        <v>1.234897843193326</v>
       </c>
       <c r="G5">
-        <v>1.013534367278989</v>
+        <v>1.026793364263439</v>
       </c>
       <c r="H5">
-        <v>0.1115136573645352</v>
+        <v>0.1204723597375728</v>
       </c>
       <c r="I5">
-        <v>0.1110997793904922</v>
+        <v>0.1229628719807886</v>
       </c>
       <c r="J5">
-        <v>0.0162032206129706</v>
+        <v>0.7458325801545013</v>
       </c>
       <c r="K5">
-        <v>0.03895418419500197</v>
+        <v>0.02249021225036181</v>
       </c>
       <c r="L5">
-        <v>8.436700945542507</v>
+        <v>0.0423976345181864</v>
       </c>
       <c r="M5">
-        <v>0.02320186640817689</v>
+        <v>147.6910014161153</v>
       </c>
       <c r="N5">
-        <v>0.02174049293571163</v>
+        <v>0.03245343012722163</v>
       </c>
       <c r="O5">
-        <v>0.02739218037264376</v>
+        <v>0.03962036554369582</v>
       </c>
       <c r="P5">
-        <v>0.002842431502878605</v>
+        <v>0.03038415574791613</v>
       </c>
       <c r="Q5">
-        <v>0.002286149292630066</v>
+        <v>0.005040577820106842</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>0.005206434797866632</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>0.4068796578724344</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -634,64 +655,73 @@
       <c r="Y5">
         <v>5</v>
       </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1.455206115151543</v>
+        <v>1.251631970424122</v>
       </c>
       <c r="C6">
-        <v>1.310570104504573</v>
+        <v>3.452700053018177</v>
       </c>
       <c r="D6">
-        <v>94.34329084982431</v>
+        <v>4171.667010529454</v>
       </c>
       <c r="E6">
-        <v>1.06563306653016</v>
+        <v>1.02789119808903</v>
       </c>
       <c r="F6">
-        <v>1.093980092080142</v>
+        <v>1.046634647036583</v>
       </c>
       <c r="G6">
-        <v>1.188604968829139</v>
+        <v>1.017672388291919</v>
       </c>
       <c r="H6">
-        <v>0.1105104227309535</v>
+        <v>0.121869048347052</v>
       </c>
       <c r="I6">
-        <v>0.1210137893540024</v>
+        <v>0.1141740085051806</v>
       </c>
       <c r="J6">
-        <v>0.0365473615938669</v>
+        <v>20.4971678635927</v>
       </c>
       <c r="K6">
-        <v>0.03395234596916784</v>
+        <v>0.0394366322346323</v>
       </c>
       <c r="L6">
-        <v>12.69760936120558</v>
+        <v>0.1081067416096134</v>
       </c>
       <c r="M6">
-        <v>0.01887366039718362</v>
+        <v>322.7000733037796</v>
       </c>
       <c r="N6">
-        <v>0.02709182300943599</v>
+        <v>0.02440802997180206</v>
       </c>
       <c r="O6">
-        <v>0.01881582502631891</v>
+        <v>0.01744103705027769</v>
       </c>
       <c r="P6">
-        <v>0.003386489627939374</v>
+        <v>0.02388468227000074</v>
       </c>
       <c r="Q6">
-        <v>0.001505962810935988</v>
+        <v>0.004991680975154983</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>0.00358346489515175</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>0.4399554201961064</v>
       </c>
       <c r="T6">
         <v>5</v>
@@ -711,64 +741,73 @@
       <c r="Y6">
         <v>5</v>
       </c>
+      <c r="Z6">
+        <v>5</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1.019391486273982</v>
+        <v>1.031515689535456</v>
       </c>
       <c r="C7">
-        <v>2.250396963482474</v>
+        <v>1.263468998417312</v>
       </c>
       <c r="D7">
-        <v>523.2287867706126</v>
+        <v>289.3661893322119</v>
       </c>
       <c r="E7">
-        <v>1.000721719390611</v>
+        <v>1.060677840535309</v>
       </c>
       <c r="F7">
-        <v>1.073271771762385</v>
+        <v>1.071753775562973</v>
       </c>
       <c r="G7">
-        <v>1.008889095137781</v>
+        <v>1.035627382021813</v>
       </c>
       <c r="H7">
-        <v>0.1186518760846478</v>
+        <v>0.1157461014435522</v>
       </c>
       <c r="I7">
-        <v>0.1229493057330703</v>
+        <v>0.1068277524364108</v>
       </c>
       <c r="J7">
-        <v>0.02259099948195098</v>
+        <v>0.4868282233810931</v>
       </c>
       <c r="K7">
-        <v>0.155195804440869</v>
+        <v>0.02132514064891377</v>
       </c>
       <c r="L7">
-        <v>25.7959313553752</v>
+        <v>0.03887370821510849</v>
       </c>
       <c r="M7">
-        <v>0.02094161121906601</v>
+        <v>22.41092613548486</v>
       </c>
       <c r="N7">
-        <v>0.02566617774174045</v>
+        <v>0.02254341419156821</v>
       </c>
       <c r="O7">
-        <v>0.02509000689685814</v>
+        <v>0.02291323966534212</v>
       </c>
       <c r="P7">
-        <v>0.002858657329747658</v>
+        <v>0.02437623106673983</v>
       </c>
       <c r="Q7">
-        <v>0.005273098722336581</v>
+        <v>0.00474974473228307</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>0.002846983478555633</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>0.1885199342078486</v>
       </c>
       <c r="T7">
         <v>5</v>
@@ -788,64 +827,73 @@
       <c r="Y7">
         <v>5</v>
       </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1.383337065441606</v>
+        <v>1.443358489501324</v>
       </c>
       <c r="C8">
-        <v>6.042374220827495</v>
+        <v>1.517588990044498</v>
       </c>
       <c r="D8">
-        <v>40103.65105239163</v>
+        <v>320.9056899845986</v>
       </c>
       <c r="E8">
-        <v>0.9995002953896431</v>
+        <v>1.116517886417965</v>
       </c>
       <c r="F8">
-        <v>1.09626762164894</v>
+        <v>1.134539452669129</v>
       </c>
       <c r="G8">
-        <v>1.026159507215772</v>
+        <v>1.190180588795851</v>
       </c>
       <c r="H8">
-        <v>0.1194896030207907</v>
+        <v>0.1158261754331226</v>
       </c>
       <c r="I8">
-        <v>0.1877355548292222</v>
+        <v>0.1210048515202896</v>
       </c>
       <c r="J8">
-        <v>0.01737636210097845</v>
+        <v>0.5720951108954007</v>
       </c>
       <c r="K8">
-        <v>0.1200840233355235</v>
+        <v>0.02448428150765897</v>
       </c>
       <c r="L8">
-        <v>1099.230600305496</v>
+        <v>0.03345022006733608</v>
       </c>
       <c r="M8">
-        <v>0.02103395394722372</v>
+        <v>36.83868474647367</v>
       </c>
       <c r="N8">
-        <v>0.02973485439598552</v>
+        <v>0.03399499255670986</v>
       </c>
       <c r="O8">
-        <v>0.02452616354732107</v>
+        <v>0.03688073630384027</v>
       </c>
       <c r="P8">
-        <v>0.002084313363025116</v>
+        <v>0.04770320698003834</v>
       </c>
       <c r="Q8">
-        <v>0.005740431296464766</v>
+        <v>0.005052090718658868</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>0.004919955230765909</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>0.1454495277595824</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -865,64 +913,73 @@
       <c r="Y8">
         <v>5</v>
       </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1.382857905042914</v>
+        <v>1.02131784314707</v>
       </c>
       <c r="C9">
-        <v>10.61271089196791</v>
+        <v>8.27231216647615</v>
       </c>
       <c r="D9">
-        <v>66576.26858159907</v>
+        <v>5697.818452283684</v>
       </c>
       <c r="E9">
-        <v>0.9995059791393377</v>
+        <v>1.03123426990706</v>
       </c>
       <c r="F9">
-        <v>1.157831742573613</v>
+        <v>1.130369227544929</v>
       </c>
       <c r="G9">
-        <v>1.026159039296157</v>
+        <v>1.047495691587278</v>
       </c>
       <c r="H9">
-        <v>0.1194485700531693</v>
+        <v>0.1202667979952163</v>
       </c>
       <c r="I9">
-        <v>0.1876993557327678</v>
+        <v>0.1110159998445881</v>
       </c>
       <c r="J9">
-        <v>0.01807691802761511</v>
+        <v>0.1041806229568931</v>
       </c>
       <c r="K9">
-        <v>0.3711410206593383</v>
+        <v>0.02642108977667107</v>
       </c>
       <c r="L9">
-        <v>3338.519078360688</v>
+        <v>1.162547500826236</v>
       </c>
       <c r="M9">
-        <v>0.02096023008490196</v>
+        <v>2375.541000521885</v>
       </c>
       <c r="N9">
-        <v>0.03288535527876583</v>
+        <v>0.03411435342797106</v>
       </c>
       <c r="O9">
-        <v>0.0245258212669632</v>
+        <v>0.02143361112619782</v>
       </c>
       <c r="P9">
-        <v>0.002161917028066279</v>
+        <v>0.02897761888654831</v>
       </c>
       <c r="Q9">
-        <v>0.005745340623041289</v>
+        <v>0.003918617758066004</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>0.003237091320861929</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>0.002857929583663433</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -940,17 +997,198 @@
         <v>5</v>
       </c>
       <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>1.370982569764385</v>
+      </c>
+      <c r="C10">
+        <v>6.023549988276754</v>
+      </c>
+      <c r="D10">
+        <v>39481.94510790928</v>
+      </c>
+      <c r="E10">
+        <v>1.014907943486806</v>
+      </c>
+      <c r="F10">
+        <v>1.118351495811974</v>
+      </c>
+      <c r="G10">
+        <v>1.033244484803083</v>
+      </c>
+      <c r="H10">
+        <v>0.1194928797099492</v>
+      </c>
+      <c r="I10">
+        <v>0.1857900049479734</v>
+      </c>
+      <c r="J10">
+        <v>44.11257632238006</v>
+      </c>
+      <c r="K10">
+        <v>0.05032419685718308</v>
+      </c>
+      <c r="L10">
+        <v>0.1058377858562002</v>
+      </c>
+      <c r="M10">
+        <v>1072.719537173365</v>
+      </c>
+      <c r="N10">
+        <v>0.02657771416073005</v>
+      </c>
+      <c r="O10">
+        <v>0.03122356677830202</v>
+      </c>
+      <c r="P10">
+        <v>0.02420891778676544</v>
+      </c>
+      <c r="Q10">
+        <v>0.005071365562473233</v>
+      </c>
+      <c r="R10">
+        <v>0.004317478012075462</v>
+      </c>
+      <c r="S10">
+        <v>1.129393304378746</v>
+      </c>
+      <c r="T10">
+        <v>5</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
+        <v>5</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
+        <v>5</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1.365609977977934</v>
+      </c>
+      <c r="C11">
+        <v>10.66599775024265</v>
+      </c>
+      <c r="D11">
+        <v>64684.27566356224</v>
+      </c>
+      <c r="E11">
+        <v>1.016984267054075</v>
+      </c>
+      <c r="F11">
+        <v>1.173411439140867</v>
+      </c>
+      <c r="G11">
+        <v>1.033244597558615</v>
+      </c>
+      <c r="H11">
+        <v>0.1193265420989615</v>
+      </c>
+      <c r="I11">
+        <v>0.1857703533800282</v>
+      </c>
+      <c r="J11">
+        <v>44.11741246094916</v>
+      </c>
+      <c r="K11">
+        <v>0.04549063245189113</v>
+      </c>
+      <c r="L11">
+        <v>0.2252998053115694</v>
+      </c>
+      <c r="M11">
+        <v>1383.775655411722</v>
+      </c>
+      <c r="N11">
+        <v>0.02591821192973042</v>
+      </c>
+      <c r="O11">
+        <v>0.020216240335262</v>
+      </c>
+      <c r="P11">
+        <v>0.02420964182509041</v>
+      </c>
+      <c r="Q11">
+        <v>0.004895771654233425</v>
+      </c>
+      <c r="R11">
+        <v>0.004346444370314443</v>
+      </c>
+      <c r="S11">
+        <v>1.089898438815982</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:Q2"/>
-    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="T1:AB1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="T2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
